--- a/biology/Botanique/Jardin_botanique_polaire_et_alpin_de_Kirovsk/Jardin_botanique_polaire_et_alpin_de_Kirovsk.xlsx
+++ b/biology/Botanique/Jardin_botanique_polaire_et_alpin_de_Kirovsk/Jardin_botanique_polaire_et_alpin_de_Kirovsk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique polaire et alpin est le jardin botanique le plus septentrional du monde, puisqu'il se trouve à Kirovsk (oblast de Mourmansk), ville russe au-delà du cercle arctique, au pied des monts Khibiny. Il dépend de l'institut du même nom qui est l'un des onze instituts du centre scientifique de Kola de l'Académie des sciences de Russie. Quelques-uns des laboratoires de l'institut botanique se trouvent à Apatity, ville qui jouxte Kirovsk.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique poursuit les buts suivants:
 Étude de la flore des Khibiny et du Nord russe et recherches sur la physiologie végétale, la pédologie, l'écophysiologie et l'écologie des arbres.
@@ -521,7 +535,7 @@
 Production de plantes pour la population de l'oblast et les espaces verts des villes de l'oblast
 Expéditions et activités éducatives
 Le jardin botanique s'étend sur 1 670 hectares avec une partie de réserve naturelle de 1 250 hectares regroupant plus de quatre cents espèces de plantes de l'oblast de Mourmansk. Elle se trouve au bord du cours inférieur de la rivière Voudyavrtchorr, au nord du lac Bolchoï Voudyavr, sur les pentes du mont Takhtarvoumtchorr, à 7 kilomètres du centre-ville et à 1,5 kilomètre du quartier montagnard de Koukisvoumtchorr. Dans la partie inférieure, ce sont 80 hectares qui sont consacrés au parc botanique, aux serres, et aux bâtiments de service. À quelques kilomètres vers Apatity, un espace naturel est consacré aux arbres du Grand Nord.
-Le jardin possède également une serre tropicale et subtropicale ouverte au public sur rendez-vous[1] qui se trouve en centre ville.
+Le jardin possède également une serre tropicale et subtropicale ouverte au public sur rendez-vous qui se trouve en centre ville.
 </t>
         </is>
       </c>
